--- a/data/trans_orig/IP16B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C876D0D-9400-4F5D-B49C-D085EAA1440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5B9ED8-103B-4D24-809C-E2314D6BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{526CF5EE-DFE9-4748-81C1-00A9A2847DEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A4125E9-55CD-42A0-A6B5-06E7DDB3B6D4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -495,7 +495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF8E273-4844-45CF-8442-349ED72915BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7B8A9-70B8-4B04-A436-4CCC7D87FFC4}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5B9ED8-103B-4D24-809C-E2314D6BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D775D2-D70C-43C7-9C05-F0414419388B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A4125E9-55CD-42A0-A6B5-06E7DDB3B6D4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{9B66E884-5E4D-40CA-9901-125C683D017B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="18">
   <si>
     <t>Menores según si ha consumido pastillas para dormir recetados por el médico en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,16 +71,22 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -495,8 +501,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7B8A9-70B8-4B04-A436-4CCC7D87FFC4}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129C7C83-D519-4635-9458-BDDE6990DAE4}">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -613,29 +619,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>656</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -647,13 +653,13 @@
         <v>656</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -662,24 +668,24 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>656</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
@@ -696,18 +702,18 @@
         <v>656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -717,40 +723,36 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>14</v>
@@ -766,52 +768,242 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>656</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>656</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="D11" s="7">
         <v>656</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N11" s="7">
         <v>656</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
